--- a/数据整理/stocks/A股/深证主板/002599-盛通股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002599-盛通股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.78</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.09</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3701</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.78</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.09</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>95.07</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>7.43</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3797</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009828</t>
+          <t>161605</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通转型三动力灵活配置混合C</t>
+          <t>融通蓝筹成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>7.43</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>77.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2656</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161605</t>
+          <t>009828</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>融通蓝筹成长混合</t>
+          <t>融通转型三动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>77.11</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002599-盛通股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002599-盛通股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3206</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2706</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002599-盛通股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002599-盛通股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -916,4 +917,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>68.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5971</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4085</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3094</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002599-盛通股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002599-盛通股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1163,4 +1164,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002599-盛通股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002599-盛通股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,17 +1184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.33</v>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4502</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1219,14 +1262,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6</v>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3407</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1235,14 +1300,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.66</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5">
@@ -1251,13 +1422,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002599-盛通股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002599-盛通股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1343,7 +1344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,17 +1355,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1395,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.84</v>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5296</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1390,14 +1433,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.33</v>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2357</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1406,14 +1471,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6</v>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2352</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1422,14 +1509,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.66</v>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1438,13 +1547,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002599-盛通股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002599-盛通股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1590,7 +1591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1601,17 +1602,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1621,14 +1642,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.08</v>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3667</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1637,14 +1680,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.84</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="4">
@@ -1653,14 +1786,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>1.33</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="5">
@@ -1669,14 +1802,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="6">
@@ -1685,14 +1818,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.66</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="7">
@@ -1701,13 +1834,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002599-盛通股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002599-盛通股份.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,133 +457,527 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000717</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>融通转型三动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.78</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3701</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009828</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>融通转型三动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.78</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0082</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.38</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3667</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5296</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2357</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2352</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -610,7 +1004,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -640,36 +1034,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000717</t>
+          <t>161605</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>融通转型三动力灵活配置混合A</t>
+          <t>融通蓝筹成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>77.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>7.38</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3797</t>
+          <t>0.4502</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -678,36 +1072,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161605</t>
+          <t>000717</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通蓝筹成长混合</t>
+          <t>融通转型三动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77.11</t>
+          <t>93.18</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.70</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2656</t>
+          <t>0.3407</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -726,26 +1120,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>93.18</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>6.76</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0149</t>
+          <t>0.0507</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -753,7 +1147,253 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>68.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5971</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4085</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3094</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -923,253 +1563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002446</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发利鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>21.25</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>68.79</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5971</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161605</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>融通蓝筹成长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>74.76</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4085</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000717</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>融通转型三动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.40</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.35</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3094</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011172</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发利鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>68.79</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0090</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009828</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>融通转型三动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.40</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.35</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1196,7 +1590,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1226,36 +1620,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161605</t>
+          <t>000717</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>融通蓝筹成长混合</t>
+          <t>融通转型三动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.10</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>77.86</t>
+          <t>95.07</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.38</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.4502</t>
+          <t>0.3797</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1264,36 +1658,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000717</t>
+          <t>161605</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通转型三动力灵活配置混合A</t>
+          <t>融通蓝筹成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.18</t>
+          <t>77.11</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>4.70</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3407</t>
+          <t>0.2656</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1312,404 +1706,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.18</t>
+          <t>95.07</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.76</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0507</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002446</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发利鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.46</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>74.35</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5296</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161605</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>融通蓝筹成长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>71.70</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2357</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000717</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>融通转型三动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2352</t>
+          <t>0.0149</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011172</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发利鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>74.35</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0468</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009828</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>融通转型三动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0362</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002446</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发利鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.39</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>74.14</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3667</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>011172</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发利鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>74.14</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0284</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1723,144 +1739,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.4</v>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3701</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.38</v>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>